--- a/日常工作/2022-10-04/运营中心及超级管家奖励计算表_2022.09.21.00.00.00_2022.10.05.00.00.00.xlsx
+++ b/日常工作/2022-10-04/运营中心及超级管家奖励计算表_2022.09.21.00.00.00_2022.10.05.00.00.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\naling\nl_files\日常工作\2022-10-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882ADAD9-802F-493D-9DB6-A61D4AA985E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7BD8F0-FE6A-4935-A127-ABA65FA86946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1014,8 +1014,8 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2489,7 +2489,7 @@
         <v>61799</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E93" si="2">F67/0.05</f>
+        <f t="shared" ref="E67:E92" si="2">F67/0.05</f>
         <v>0</v>
       </c>
       <c r="F67">
